--- a/TestData/firstFlow/changeTargetType.xlsx
+++ b/TestData/firstFlow/changeTargetType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\OneForAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\firstFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FA950-16A7-4211-B29B-45F0D529EF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC72B6-154B-4DE6-962C-5FD54F2B8785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2988" yWindow="1164" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Wave Name</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Host Number In Wave</t>
   </si>
   <si>
-    <t>Existing System</t>
-  </si>
-  <si>
     <t>Sync Type</t>
   </si>
   <si>
-    <t>Stage 1 &amp; 2</t>
-  </si>
-  <si>
     <t>Passthrough</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>Friendly Name</t>
   </si>
   <si>
-    <t>172.29.30.132</t>
-  </si>
-  <si>
     <t>Capture</t>
   </si>
   <si>
@@ -69,22 +60,16 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>Trial 2</t>
-  </si>
-  <si>
-    <t>Trial 3</t>
-  </si>
-  <si>
-    <t>psp-MyLinSecondFlow-src2</t>
+    <t>First Flow</t>
+  </si>
+  <si>
+    <t>psp-MyLin1-src-IMAGE</t>
+  </si>
+  <si>
+    <t>psp-MyLinFirstFlow-src1</t>
   </si>
   <si>
     <t>psp-MyLinFirstFlow-src2</t>
-  </si>
-  <si>
-    <t>psp-MyLinFirstFlow-tgt2</t>
-  </si>
-  <si>
-    <t>root</t>
   </si>
 </sst>
 </file>
@@ -451,7 +436,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,30 +466,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -512,42 +497,27 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://172.29.30.127/" xr:uid="{A988F258-CFB9-47FF-A4D0-1AEDFE555AEB}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://172.29.30.127/" xr:uid="{D676D42D-132C-4FEB-BA34-1936049A21E5}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://172.29.30.127/" xr:uid="{E22F3EED-C040-472B-9081-71DE921FB1CB}"/>
-    <hyperlink ref="H3" r:id="rId4" display="https://172.29.30.127/" xr:uid="{F90C2A95-21AC-4638-A7AF-0459BB82EAF0}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://172.29.30.127/" xr:uid="{E22F3EED-C040-472B-9081-71DE921FB1CB}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://172.29.30.127/" xr:uid="{3A7A43D1-7E2E-498F-B89A-69E6D2AE9636}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>